--- a/ResultadoEleicoesDistritos/AVEIRO_SÃO JOÃO DA MADEIRA.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_SÃO JOÃO DA MADEIRA.xlsx
@@ -597,64 +597,64 @@
         <v>5859</v>
       </c>
       <c r="H2" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="I2" t="n">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="J2" t="n">
-        <v>2446</v>
+        <v>2339</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>650</v>
+        <v>693</v>
       </c>
       <c r="M2" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="N2" t="n">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="S2" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="T2" t="n">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="U2" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="V2" t="n">
-        <v>3784</v>
+        <v>3720</v>
       </c>
       <c r="W2" t="n">
         <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>3675</v>
+        <v>3732</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>64</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
